--- a/tools/clausier-sante/clausier-sante-2.0.1.xlsx
+++ b/tools/clausier-sante/clausier-sante-2.0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gildas/Documents/Codes/security/CISO/ciso-assistant-community/tools/clausier-sante/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0715C300-19FD-3742-9C78-987FB719A23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9C8D14-337D-C64E-B46E-CB7848E7108E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="30240" windowHeight="19000" activeTab="1" xr2:uid="{D548BFD9-24AA-6740-B2D6-47677657AB26}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="30240" windowHeight="19000" xr2:uid="{D548BFD9-24AA-6740-B2D6-47677657AB26}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="2" r:id="rId1"/>
@@ -1359,9 +1359,6 @@
     <t>Clausier-sante-2.0.1</t>
   </si>
   <si>
-    <t>Club RSSI Santé - 15/05/2024-17/07/24</t>
-  </si>
-  <si>
     <t>O-5.6</t>
   </si>
   <si>
@@ -1380,6 +1377,9 @@
   </si>
   <si>
     <t>Le titulaire notifie à l’ETABLISSEMENT DE SANTE toute violation de données à caractère personnel dans les meilleurs délais après en avoir pris connaissance, par mail à l’adresse DPO [at] ETABLISSEMENT DE SANTE [.fr]. Cette notification est accompagnée de la description de la violation, les données concernées, la cause et toute documentation utile afin de permettre à l’ETABLISSEMENT DE SANTE, si nécessaire, de notifier cette violation à l’autorité de contrôle compétente.</t>
+  </si>
+  <si>
+    <t>Club RSSI Santé - 14/05/2024</t>
   </si>
 </sst>
 </file>
@@ -1872,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF7573E-4E40-7F4B-9C11-18EBEFA31BD0}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1936,7 +1936,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17">
@@ -2008,7 +2008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F5F993-1285-4A4F-B2E7-39BB31DE6BB0}">
   <dimension ref="A1:F426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="E5" sqref="E5"/>
     </sheetView>
@@ -2139,7 +2139,7 @@
         <v>37</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="68">
@@ -2156,7 +2156,7 @@
         <v>40</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="34">
@@ -2173,7 +2173,7 @@
         <v>42</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F9" s="26" t="s">
         <v>326</v>
@@ -2581,13 +2581,13 @@
         <v>2</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D33" s="20" t="s">
         <v>276</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F33" s="21" t="s">
         <v>327</v>
@@ -4214,7 +4214,7 @@
         <v>4</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D129" s="20"/>
       <c r="E129" s="20" t="s">
